--- a/04kappa/fee_tagger_dataframe_kappa.xlsx
+++ b/04kappa/fee_tagger_dataframe_kappa.xlsx
@@ -22,199 +22,199 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>wang2154@purdue.edu</t>
+  </si>
+  <si>
+    <t>kshatkus@purdue.edu</t>
+  </si>
+  <si>
+    <t>jhaskins2013@yahoo.com</t>
+  </si>
+  <si>
+    <t>cklauck@purdue.edu</t>
+  </si>
+  <si>
+    <t>dai77@purdue.edu</t>
+  </si>
+  <si>
+    <t>jmccror@purdue.edu</t>
+  </si>
+  <si>
+    <t>kim1845@purdue.edu</t>
+  </si>
+  <si>
+    <t>wu650@purdue.edu</t>
+  </si>
+  <si>
+    <t>cthieme@purdue.edu</t>
+  </si>
+  <si>
+    <t>mspanier@purdue.edu</t>
+  </si>
+  <si>
+    <t>fische10@purdue.edu</t>
+  </si>
+  <si>
+    <t>asapra@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhan2016@purdue.edu</t>
+  </si>
+  <si>
+    <t>boyle20@purdue.edu</t>
+  </si>
+  <si>
+    <t>wei97@purdue.edu</t>
+  </si>
+  <si>
+    <t>john1300@purdue.edu</t>
+  </si>
+  <si>
+    <t>pszrom@purdue.edu</t>
+  </si>
+  <si>
+    <t>zeng28@purdue.edu</t>
+  </si>
+  <si>
+    <t>mxuan@purdue.edu</t>
+  </si>
+  <si>
+    <t>tateh@purdue.edu</t>
+  </si>
+  <si>
+    <t>kmcgucki@purdue.edu</t>
+  </si>
+  <si>
+    <t>wang1768@purdue.edu</t>
+  </si>
+  <si>
+    <t>szaman@purdue.edu</t>
+  </si>
+  <si>
+    <t>cwilhigh@purdue.edu</t>
+  </si>
+  <si>
     <t>apozivil@purdue.edu</t>
   </si>
   <si>
-    <t>fische10@purdue.edu</t>
+    <t>ahbruns@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhu316@purdue.edu</t>
+  </si>
+  <si>
+    <t>heo6@purdue.edu</t>
+  </si>
+  <si>
+    <t>zeng60@purdue.edu</t>
+  </si>
+  <si>
+    <t>wu649@purdue.edu</t>
+  </si>
+  <si>
+    <t>gong34@purdue.edu</t>
+  </si>
+  <si>
+    <t>liu1417@purdue.edu</t>
+  </si>
+  <si>
+    <t>zheng216@purdue.edu</t>
+  </si>
+  <si>
+    <t>li470@purdue.edu</t>
+  </si>
+  <si>
+    <t>conner22@purdue.edu</t>
+  </si>
+  <si>
+    <t>cbbaird@purdue.edu</t>
+  </si>
+  <si>
+    <t>gonza186@purdue.edu</t>
+  </si>
+  <si>
+    <t>schwenk@purdue.edu</t>
+  </si>
+  <si>
+    <t>xie188@purdue.edu</t>
+  </si>
+  <si>
+    <t>rmcdowel@purdue.edu</t>
+  </si>
+  <si>
+    <t>mthorn@purdue.edu</t>
+  </si>
+  <si>
+    <t>hu417@purdue.edu</t>
+  </si>
+  <si>
+    <t>vbrank@purdue.edu</t>
+  </si>
+  <si>
+    <t>mmaloof@purdue.edu</t>
+  </si>
+  <si>
+    <t>lee1749@purdue.edu</t>
+  </si>
+  <si>
+    <t>kim972@purdue.edu</t>
+  </si>
+  <si>
+    <t>jdenhar@purdue.edu</t>
+  </si>
+  <si>
+    <t>dean24@purdue.edu</t>
+  </si>
+  <si>
+    <t>shen147@purdue.edu</t>
+  </si>
+  <si>
+    <t>kprzybor@purdue.edu</t>
+  </si>
+  <si>
+    <t>zheng191@purdue.edu</t>
+  </si>
+  <si>
+    <t>fu58@purdue.edu</t>
   </si>
   <si>
     <t>flanagak@purdue.edu</t>
   </si>
   <si>
-    <t>wang2154@purdue.edu</t>
-  </si>
-  <si>
-    <t>wu650@purdue.edu</t>
-  </si>
-  <si>
-    <t>vbrank@purdue.edu</t>
-  </si>
-  <si>
-    <t>tateh@purdue.edu</t>
-  </si>
-  <si>
-    <t>hu417@purdue.edu</t>
+    <t>bbrumfi@purdue.edu</t>
   </si>
   <si>
     <t>sruddick@purdue.edu</t>
   </si>
   <si>
-    <t>liu1417@purdue.edu</t>
-  </si>
-  <si>
-    <t>fu58@purdue.edu</t>
+    <t>meng46@purdue.edu</t>
+  </si>
+  <si>
+    <t>agosnell@purdue.edu</t>
+  </si>
+  <si>
+    <t>wang1509@purdue.edu</t>
   </si>
   <si>
     <t>land1@purdue.edu</t>
   </si>
   <si>
-    <t>shen147@purdue.edu</t>
-  </si>
-  <si>
-    <t>jdenhar@purdue.edu</t>
-  </si>
-  <si>
-    <t>kmcgucki@purdue.edu</t>
-  </si>
-  <si>
-    <t>szaman@purdue.edu</t>
+    <t>hxiang@purdue.edu</t>
   </si>
   <si>
     <t>cruz35@purdue.edu</t>
   </si>
   <si>
-    <t>kshatkus@purdue.edu</t>
-  </si>
-  <si>
-    <t>mmaloof@purdue.edu</t>
-  </si>
-  <si>
     <t>zhan1565@purdue.edu</t>
   </si>
   <si>
-    <t>li470@purdue.edu</t>
-  </si>
-  <si>
-    <t>lee1749@purdue.edu</t>
-  </si>
-  <si>
-    <t>zeng60@purdue.edu</t>
-  </si>
-  <si>
-    <t>mthorn@purdue.edu</t>
-  </si>
-  <si>
-    <t>wei97@purdue.edu</t>
+    <t>yan125@purdue.edu</t>
   </si>
   <si>
     <t>miao14@purdue.edu</t>
   </si>
   <si>
     <t>zhu488@purdue.edu</t>
-  </si>
-  <si>
-    <t>wang1509@purdue.edu</t>
-  </si>
-  <si>
-    <t>zheng216@purdue.edu</t>
-  </si>
-  <si>
-    <t>wang1768@purdue.edu</t>
-  </si>
-  <si>
-    <t>cwilhigh@purdue.edu</t>
-  </si>
-  <si>
-    <t>xie188@purdue.edu</t>
-  </si>
-  <si>
-    <t>asapra@purdue.edu</t>
-  </si>
-  <si>
-    <t>heo6@purdue.edu</t>
-  </si>
-  <si>
-    <t>zeng28@purdue.edu</t>
-  </si>
-  <si>
-    <t>cbbaird@purdue.edu</t>
-  </si>
-  <si>
-    <t>meng46@purdue.edu</t>
-  </si>
-  <si>
-    <t>mxuan@purdue.edu</t>
-  </si>
-  <si>
-    <t>yan125@purdue.edu</t>
-  </si>
-  <si>
-    <t>jmccror@purdue.edu</t>
-  </si>
-  <si>
-    <t>boyle20@purdue.edu</t>
-  </si>
-  <si>
-    <t>agosnell@purdue.edu</t>
-  </si>
-  <si>
-    <t>dai77@purdue.edu</t>
-  </si>
-  <si>
-    <t>kprzybor@purdue.edu</t>
-  </si>
-  <si>
-    <t>cklauck@purdue.edu</t>
-  </si>
-  <si>
-    <t>dean24@purdue.edu</t>
-  </si>
-  <si>
-    <t>hxiang@purdue.edu</t>
-  </si>
-  <si>
-    <t>gong34@purdue.edu</t>
-  </si>
-  <si>
-    <t>jhaskins2013@yahoo.com</t>
-  </si>
-  <si>
-    <t>mspanier@purdue.edu</t>
-  </si>
-  <si>
-    <t>rmcdowel@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhu316@purdue.edu</t>
-  </si>
-  <si>
-    <t>gonza186@purdue.edu</t>
-  </si>
-  <si>
-    <t>pszrom@purdue.edu</t>
-  </si>
-  <si>
-    <t>kim972@purdue.edu</t>
-  </si>
-  <si>
-    <t>conner22@purdue.edu</t>
-  </si>
-  <si>
-    <t>zheng191@purdue.edu</t>
-  </si>
-  <si>
-    <t>kim1845@purdue.edu</t>
-  </si>
-  <si>
-    <t>wu649@purdue.edu</t>
-  </si>
-  <si>
-    <t>schwenk@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhan2016@purdue.edu</t>
-  </si>
-  <si>
-    <t>ahbruns@purdue.edu</t>
-  </si>
-  <si>
-    <t>bbrumfi@purdue.edu</t>
-  </si>
-  <si>
-    <t>cthieme@purdue.edu</t>
-  </si>
-  <si>
-    <t>john1300@purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.714285714285714</v>
+        <v>0.770833333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.611650485436893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -616,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.620689655172414</v>
+        <v>0.645161290322581</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.770833333333333</v>
+        <v>0.594594594594595</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.842105263157895</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.434782608695652</v>
+        <v>0.837209302325581</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.588235294117647</v>
+        <v>0.842105263157895</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -682,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.566666666666667</v>
+        <v>0.675675675675676</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.818181818181818</v>
+        <v>0.611650485436893</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -715,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.409090909090909</v>
+        <v>0.821052631578947</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.758620689655172</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -748,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.714285714285714</v>
+        <v>0.813559322033898</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -759,7 +759,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -770,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.666666666666667</v>
+        <v>0.553191489361702</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -792,7 +792,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.571428571428571</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -803,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.434782608695652</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -814,7 +814,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.628571428571429</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -825,7 +825,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.659090909090909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -847,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.75</v>
+        <v>0.411764705882353</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -858,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.813559322033898</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -869,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.849557522123894</v>
+        <v>0.620689655172414</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -880,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.837209302325581</v>
+        <v>0.466666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -891,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -902,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.530120481927711</v>
+        <v>0.659090909090909</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -913,7 +913,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.625</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -924,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.411764705882353</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -935,7 +935,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.727272727272727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -946,7 +946,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>0.530120481927711</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -957,7 +957,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.75</v>
+        <v>0.628571428571429</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -968,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.714285714285714</v>
+        <v>0.526315789473684</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -990,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.571428571428571</v>
+        <v>0.780487804878049</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1001,7 +1001,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.444444444444444</v>
+        <v>0.831168831168831</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1012,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.805970149253731</v>
+        <v>0.727272727272727</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1023,7 +1023,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.636363636363636</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1034,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1056,7 +1056,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1067,7 +1067,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.44</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1078,7 +1078,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.594594594594595</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1089,7 +1089,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.476190476190476</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1100,7 +1100,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.555555555555556</v>
+        <v>0.758620689655172</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1111,7 +1111,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1122,7 +1122,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.645161290322581</v>
+        <v>0.409090909090909</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1144,7 +1144,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.636363636363636</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1155,7 +1155,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.466666666666667</v>
+        <v>0.818181818181818</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.780487804878049</v>
+        <v>0.620689655172414</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1177,7 +1177,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.553191489361702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1188,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.476190476190476</v>
+        <v>0.566666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1199,7 +1199,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.526315789473684</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1210,7 +1210,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.55</v>
+        <v>0.588235294117647</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1221,7 +1221,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.837209302325581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1232,7 +1232,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.417910447761194</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.831168831168831</v>
+        <v>0.555555555555556</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1254,7 +1254,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.821052631578947</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.620689655172414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1276,7 +1276,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1287,7 +1287,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.675675675675676</v>
+        <v>0.849557522123894</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1298,7 +1298,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.805970149253731</v>
+        <v>0.837209302325581</v>
       </c>
     </row>
   </sheetData>
